--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/42_K.Maraş_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/42_K.Maraş_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35FE830-5DEE-4867-9DFE-C351EAC7613D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A56B803D-33E7-47E6-A450-C39B13DB3E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{F2B91CCA-5AEC-4B99-B18C-3D9117CEFE77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{9F1FAE42-B4F1-49BD-B78B-EB4327E005E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -910,10 +910,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{02AAC4A8-C028-46C3-BCE8-A56C68D9CEA8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="3" xr:uid="{D3769DCA-9956-4898-85D3-51A473F6D7C7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="4" xr:uid="{C4125392-D5EE-46FF-90CC-9F90070AA1D7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="5" xr:uid="{1BA1E9E0-3BBF-4DAB-9C2D-42229C0E190F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F5EC4875-1421-4A64-AE28-E58C6BE1282C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="3" xr:uid="{7EC5DB3F-B1C5-4007-B47B-A26BCA9B029B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="4" xr:uid="{09F18DD6-1A70-4945-A9A4-7BEBA498FD50}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="5" xr:uid="{BD7DF462-4019-4FEB-BB5C-A46835C83AE9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1283,7 +1283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42F0B7-D6AF-4A01-91D7-714D4BF469C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06559841-2E0C-42BA-8F33-A27E7A00F078}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2534,18 +2534,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF4AC5EB-DD8D-4283-BEDE-2A8C37F0522F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{012A56D9-8E72-4C6B-AFDA-E0FBC9F31738}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A309A60-D482-431D-B79E-7E5763108DCD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{29331A62-60E2-4D80-B204-6899A60E6E50}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECE1499D-DD5C-48DB-A4EF-B74501C56713}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{07681CF3-260E-43A4-8B52-651D87C1962B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0E03F65-B46D-4309-A867-1978E22ECD0C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3191875-3CC6-413B-8CBC-835815560651}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{191F3554-B475-4C4D-96A8-1EDCA28A3EBC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{464DEED7-008D-4D45-963E-332E895B613F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C8AE061-233D-481A-ACCA-8CB89F320DDA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E6FA090-C5CD-4380-B9D1-98F9F456F05D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A42E73A-781B-4F80-A322-888CDC16CDF6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E60724D-AC12-4D64-BBB9-880E4E2C7194}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DFD0323A-08E4-40B8-9B79-925C65791D7B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{390FFA50-E0FA-4F86-9F8C-16EDA4E11E21}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{750937B5-8DA2-4297-AED0-A29890CBDD11}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC611AB8-9C66-47AE-9916-29EE8F540840}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2906D22-DDC0-45EC-BAA2-4752715A0EA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27262008-296B-4B7B-92CB-BA2E956286FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{834D28DB-8FD7-47B4-A09C-3BCF1D731BD6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8DD8EB0B-9B15-4937-846C-286B8A24B152}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B821DD2-B468-4C44-BB22-A9C04D0A6837}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9712E13B-5A4A-4052-A53A-5D36CD1901C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2558,7 +2558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9895CE2B-3824-4136-AC54-F6F6D4E1B5EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ACBD45-C606-47B3-8B55-D40E88CF22DC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3794,18 +3794,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A099F81-9919-4AE0-9E3F-84FEC487D4EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C029D3A-2DE6-4CD2-B3EE-AE6A48D9C5ED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6059B253-4C74-45FE-8E81-B5486FA182F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C73E074F-0572-4BD6-B79B-8DC5CE9187C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB07CE53-34FC-40E4-BEDA-A622DBB51943}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5571F3F4-B552-4582-A86F-6355C3357779}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{841F7DFA-CED0-492C-BA3C-6755F251E791}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BDAD645-53D4-4833-A4AA-DFF804FE8C6D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1FBF1CEC-23B5-4C42-B5EA-E35E57763252}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{510E59A0-E3E2-47B6-B303-57E42E095B86}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B17F9AD-A461-4273-A3F1-04E68373DDA1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{485A028A-A58E-4B7D-9B59-E2CBFEF7873A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86AD209F-515D-4DFD-BC2F-54B1C9D292A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2108D03-C2A7-44C0-8856-455255DF2B09}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FD7E986D-BEE0-4472-BB87-D9BD4BA15EA7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3D489DEB-DB6A-474A-8A46-BC1F8ADF085C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C7ED050-3EF1-4686-84C7-36ADADFC020C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B91B3724-4591-4504-988E-B97B0E884A85}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B7F3284-C3BF-46C1-8DD3-76CFF6AFA5E1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E9C1BF4-F28B-4127-836B-1B3594185DC7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5E64A1D-1A33-4731-B389-7F3D857642E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EACA9062-047D-4E9A-891F-576D046EB334}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3AA5BAC5-B72D-4FF6-9870-892247551C44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79604236-9C24-4CB2-A24D-0C01EBAEA021}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3818,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE10B54B-EC94-4993-903C-0435ED46AAAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C786FDFC-8434-4D3E-BF6D-4801F3D4D11B}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5050,18 +5050,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C4679F6-3A7A-4246-9A72-40CD39D95BF9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBD77056-A06C-4968-BFF7-B6EC57FC3290}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{00A0B9C7-6F8A-4932-8093-1F3AD814B564}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3E2D5A44-BD2E-4DC3-9537-6AB39E7F0809}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA7E7519-4168-419E-BEFF-27E7DEAEC4CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5564D7E8-11F6-4F51-A486-A5B6A5581F1B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{296E0DFD-F015-461D-9490-69AF32072FEF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA994810-ABA7-4C66-9BF4-A8408A1FE6B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD608E02-61B0-4D9E-BA0F-8B048EB901AE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FF7FD3F1-6CEC-4E19-80AC-9D4EDF4F47E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{522F134B-6D0E-481A-BE25-B11BE4A03ED5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{498F6495-8192-4283-B61A-302FBC6181BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CA22A4C-6499-491A-A408-8FE1995190EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE6B021A-02DF-456D-989A-43E2DFDC6B81}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{32747E07-F890-4FA1-91AA-4F7E6EDAB3F2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2A3C0147-BA9A-4A7F-B19A-A6ACF10A5F68}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22B11398-B5B9-4B23-8CD5-65AC1A09FCE1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F59A93CA-549C-4C47-8C4A-E81B4B99D28F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8AC97AA-D4FF-4999-A17F-AEBDD27336F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4021B779-8DCB-4C93-8458-5EF3D9EA4FBF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46D13B42-AA30-4F31-85F6-E6E3A1D5A768}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{328A7658-DD00-4A6C-9CC4-DF65B59AB9E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{724B99A4-5858-4E5F-AC87-303FF65626F0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AD27A26-9881-4C5A-BBD8-9422FEAB50B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5074,7 +5074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EBBE8F-6799-4BED-8D29-64AC308C51D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB63C99-7605-41B1-BBC1-E799B1D250A8}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6306,18 +6306,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1878FE80-2512-4DFF-8E0D-BA7707CE799D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA711C27-F10E-44BE-A74A-22035C0054C8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9DAB5DAF-922B-4C8E-B3BD-F790E8DD3AC0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC45C191-9A8A-45CC-99A0-5D8800DB1C91}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D7B8AC4-C215-43D0-9A52-347166CCBD0E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CDB6A94-7D34-4B4C-B6E0-2E6B14C0A62E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1B1237D-53CB-42CD-A80C-19750C5F770A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EA9E4A8-7353-4DC8-B09D-87D143CF23A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7C75247-65EA-479B-B6CC-A8ABB057C322}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74496619-4B87-4BD0-BBFA-B883DED15B56}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{776C68A3-396D-4657-A8B1-6872FB532313}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92C96BFF-9598-436B-8190-7B4A37C49714}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A8FD6EF-CCB2-4B53-BF13-9796BB694442}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80E5021E-674C-4514-823F-F5D1BF50B376}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{587C3190-DC95-4DA6-ACF6-6B58BD908595}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8CA1361B-236D-4B94-AFF5-323A974A561C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3E550A7-E745-41B6-8D6E-4F0342382DD5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F3F33C1E-11BB-4DC1-A89E-E9DB0E2A169D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F325B5A7-30AA-42FC-A92A-8C6CA083F966}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E8146A6-C4DF-43F5-9D65-F1E8C3769AD6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1541D86A-CD1D-4C21-9713-0A726A603D3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E308ECCF-E415-4717-8054-4DD8A78A1092}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55F2D49E-A5D5-4F38-A39C-749B751E7F00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93D56443-09E6-43DD-B31F-B7F80F9129B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6330,7 +6330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88A6EA2-7160-49EA-BD14-9F5DDF06814F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DC6676-C4F2-44F1-8FD2-D8B80FB4857E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7581,18 +7581,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17C8E585-C56F-481A-9AB9-1A9A08A20C57}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED30A8C8-D2E9-46E9-BB9D-9E9491AC3BAB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ACF7F072-8036-4F0F-AAE9-D86FE2378990}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7D7E964D-57FD-4123-9870-E5957FEFFB39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{393B4375-6CBE-4FB6-A4D0-DB160EF977C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CD32D3D-F404-4DEB-8ABC-AD512505B119}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCCDB47F-10E4-44E5-A243-314B187D3A60}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85EA794D-41FA-4C85-8844-B1214E25BBF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D53B9D5A-6D9C-452C-ACE1-36317EF1D594}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5DA10F3F-12F5-4CDE-93E8-024B83758504}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7385512-CEE1-4F9C-A057-6DB681752626}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{514B0833-754A-459B-8BBD-4D2662B53473}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A2431DB-5C38-4FD2-A2FC-AECC04713C94}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F0EAABE-4585-4684-8F47-5C3090153699}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7589B351-6961-4EAF-BBF4-CB151B6080AA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{66BE3249-9553-43E7-B88B-4849CBA2D6B8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A811576A-7560-467B-91BA-08FD68521FB9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11494039-AE80-4CFE-81EA-A2D10F6498AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{356E8A3A-5DC8-45A9-B0DD-CF4FAFC0B65B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0C9FB5E-42B3-43B9-96A0-EEAC489E8C9D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3971DA2-28F6-4BFB-ABCA-A16BAC5E461C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C3B02C9-5F4E-4C71-B91D-4C79BCDB3C82}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC0E3229-CBB1-468E-BB8F-79B7C9EC75CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43B0CE6E-92EA-4478-90B0-02FB130F37FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7605,7 +7605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919AFC7C-BEFD-40C7-A79F-4AC6975C9986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C0777E-D9F2-454D-BB2E-254EEEC2AB60}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8856,18 +8856,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD5DCCF6-F72F-47D7-A5D0-B223F36EE370}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F63085EB-B7B5-4016-A380-BAA59027CDE0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{34EF47E5-BBF4-49B6-9F89-6F934B233216}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{62CFA01E-4E6E-480A-9E48-E66CE19DE5AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B2C2052-77BD-4CC9-82FD-9FFA872F698A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75913D9F-1194-4E30-9D42-5A762B6D7720}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E430BB3-03CE-42C7-956C-BFDA8BF5F44A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B594CF0-073E-434C-B831-18EED434FA74}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{883A5C6F-1CAE-46BC-9B11-4AEB8534270B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DBAE3F4D-EBE0-4C37-A311-D793DB43514A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19476D22-14EB-470A-AC59-84D5BAD5C5BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0624E49D-2A5D-43A4-8BC2-BA215FD92B8B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0287583-1B8D-40EF-B91A-6B1A2AE0634A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47BA2D00-30AE-4254-AD36-D626C7C5E7CC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F06F35C8-E963-4F88-952A-9E4262444121}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4339CB75-4C4F-472E-8B11-9756A966E5FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{729FF298-3FB8-44DE-82F7-B3CDA4948239}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87F96801-8623-45F3-913C-6C08EE13792C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2C0336C-756C-471F-A862-006F1D782D72}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B0FB359-43E1-457A-814A-F4ADBD74906F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C812954-D0A3-44C2-9EFB-A5D24A08FD6D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F8E7D11-3CB9-419D-B1F0-F3C76E671435}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92EFEFED-343E-40B7-AAAD-BD16403DC12F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A87ED5FB-4F50-40A6-9063-8E6C91113087}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8880,7 +8880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B936607-5B4F-4D95-85E5-F253C83603BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE053BE-5701-44FA-8C33-30B087B604D9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10127,18 +10127,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DADB83A2-1CC1-4CBF-8A6A-A14E15291188}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0FCC48E-59C1-4F85-9C8D-102754775850}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C29F324A-2734-4379-A499-AF8201DEBD0C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B9E51179-74A6-4298-AFA4-0DD7CE89103E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1291850F-3EC6-40B1-82B0-92703CCA5C56}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4334661C-4876-47CC-B34A-B48CF480956F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B48CAA21-2223-4F2D-B863-FAA16B605F87}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{428C5911-CF07-4FF8-903E-93C3106E2304}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2879A9A-1B23-450E-BBE1-E7E6BEC57AE3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C04EA189-AA1D-4B05-AAE0-CC9DDF6BF5BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9EA3DA4-6A0F-43EE-966B-765B71E05CD3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6B290DA-760E-4350-BAA1-FA00C5261C24}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F753205-58F8-40D6-B59F-474A92D18D79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BED08D98-F858-4B87-BE74-659AF40DF0A1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{17740444-8698-438F-ABA0-58F0D7B57B11}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84BA3429-CF40-4FC0-BA58-F7C3D41DD79B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA5AAE12-EAA0-4FFE-8048-65292837FDB6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15C4E174-895C-40E9-BF08-89C6D34A9772}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A12CDC6A-C230-4DFD-8C45-617766F07CF5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A11231B-4078-4376-B167-C9335D40270A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3909B2E2-7915-472C-9B3D-BF28A901A351}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{142426B7-DF45-44CC-B622-75BAD98F5E4D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C42DC0F1-652C-4A52-BAF0-C53CBD7F94CA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB4270F2-4685-47E7-B5DF-BA08298B2C04}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10151,7 +10151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBF89A6-6AA8-4854-956F-D91DDBB3E94D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0526AEA7-B334-476E-A681-4E6395FF5C4D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11398,18 +11398,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C964201-0069-4724-BB5A-A529EF2A72AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2392F289-585A-49DD-972A-E50CC5A71252}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{22621DA2-36CA-47DE-9CF2-85F6E9708E4B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB560F8C-3722-41C3-85E7-76C644F09F78}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6FE607D-E7DC-45ED-8CFB-E98AF6594B90}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{392FE018-8E74-419A-B6D8-FE2AE2B0BB03}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25B1CC63-566C-4791-AF1F-2340154C3838}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D87212F4-AB23-4DE9-BD60-2B8ACEDF7A8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15FC31BA-617F-4BDE-953F-96BCC5DADABB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB03BF42-E59A-4E45-BBE3-B552B5C921EC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91C5FD76-4640-426E-98A3-759CCE0D784A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFA32FC6-DF3B-4071-954C-D749248393CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{129DDAAD-D140-4DB0-9E63-A46D19947250}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E1F76B9-1432-44EA-9F98-70E06B17532C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23932E16-721C-4099-B850-1606916F8BBE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E338558B-20BB-4BD7-9068-121E47E4153F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F85ADCFF-62E4-4B7B-AA9E-B728E6B4017A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{131D8F85-F363-4873-B602-EC91FD678FEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D285D37D-9982-413F-84AA-9EE2A609C1DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{377EE73C-6F80-4561-A654-6786E1431C8A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{897426DE-971A-48B2-8DD0-C476AAD039F7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B94D9DDF-B520-4DAF-A147-0EFCFC835886}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17DA1582-7E4F-4010-B52D-F7E6E5D857FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{39622A7C-71BB-43AB-9EB3-7A6D6E2F1311}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11422,7 +11422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A2FD83-299C-4E1E-A437-5A141466DB44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8903DA35-433E-4084-81A1-585C66F17F70}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12661,18 +12661,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7B7510B-3045-499C-8F0A-C94CA093A790}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBC13573-7BBA-425B-8E57-CCB5F6B2BA87}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{09301F82-EADD-4CBC-A3B9-A6449CF5B586}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{676D0532-D924-4E06-A4AA-DB01F8D2345E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E5B751A-E94F-4460-A9AB-F7D8187AFBC7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC8F76D9-A465-4D5C-A3B2-D188C3AAC804}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32102E62-FD3A-4E80-9C91-E849E589FE61}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8D5197D-55F6-4001-BA1B-BB222BFB6C96}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D64318C-C8E3-4C58-B69F-28B641CBFE3B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D60BABC4-A944-43B1-8C26-2D1FC425C0E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7881972B-783A-43D8-AACD-75CF6F079669}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8A503B4-FD69-4A2C-B82A-4F45F2D66C7F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19781CA7-7829-4561-A1EE-F9CD0A893222}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{856430F1-52E5-46B4-AB62-AA7FAC0D6B87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB446CC4-F857-49C4-88CD-2AD8E17D9225}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F107FD38-B6D6-4D75-937D-82C134FB9EBF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B8F7B61-5667-466B-8DD7-C38CEAEC93B4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8640C79-A78D-45C8-A0CA-E826D4ABF936}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89B89F8E-607E-4F50-BEB1-F51DBBD1F85F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C65B410-F063-44FF-B462-1ACC2F3FC7F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F14F1C5-614B-4B12-867C-1327A8F55BC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{818D18B9-1751-4F7A-B94C-CDAFA7C5C11F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{309009B0-1878-4E87-B9AB-938DF5C6071B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB08DDEF-9370-4AF0-B38C-69F06B8C1917}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12685,7 +12685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75997312-C813-44D2-93E5-8799425A4D02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6A3626-8D28-473E-915D-0CC812D1F814}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13921,18 +13921,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51ABE07E-81AE-4705-BAAC-0B3B7028FA42}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{624148B7-22AD-4FA1-81B9-3AE278C4E3FA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D3E0D8B6-DCED-46B9-BB48-95293EFB784A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DC3FBE44-76FB-496A-87A8-B1E71D659847}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2842363-8F29-45B9-BE38-F639A58E8242}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87641301-6F5D-47A3-AF3E-0D2D3B2BA8E8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4035CD1-A5E7-409E-B999-921A35B4AFD2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{872D4A6E-9233-47F9-88A6-95E9D908E3F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C700E80-1932-464B-A18D-92D92BAA545A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29DD3293-F29F-4A20-823E-38D69BBE38D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F822B9D0-D55C-4C4B-9D82-A8E999E9A55C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1758CB53-C8F8-4276-AB46-442EA8B4209C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7D6623F-E5A0-42A1-98BC-77F4397F3C1F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F6C782B-8CFE-457B-A2B6-6060D23BF293}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57864683-8341-4AF8-900C-1FD8D6BB316E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{900DFF0B-147B-4696-90AC-73A4482635FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{941F689A-11D9-48EB-A449-2797002D5FA9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{726648C7-8EB7-42CE-B169-E72207895DB4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9524B67-51AC-4180-A907-49DF9E428C34}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CBD67F1F-D4A8-483E-A720-FB718A880004}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28E4B013-DAA6-4987-9A59-51E671F6E0AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF7CD8AF-D10D-43EB-B3FE-A0D5203C0E56}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23E52076-734F-4A0F-A9F3-722866FDADE7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7E3F519-A993-48BD-AF1E-5227693CFECE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13945,7 +13945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48E66D2-82BC-4139-9E62-2343023E3BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D6F7D4-489C-47E9-97FD-BCBBA1772978}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15181,18 +15181,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8DA45B5E-99EB-4EF6-94C2-B880398F87E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56781373-1850-450B-A3D5-E5A34FF068AA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB4DE28F-FF77-4F71-83BB-9DE37A42374C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{13B99ECF-EBB7-427C-82A4-935207EAA9B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{603A3EC1-0284-4CF0-A6CC-F089655ED210}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22950A2F-B0BD-46AA-90D9-1A401528D463}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F17CB75C-194F-42F7-BB3C-0D506C5D77A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FF2C17E-6E64-484A-8A7B-05C0304BFEC5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E94FDB56-2B8D-4031-9EC8-A8A927E897D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{471C0AA7-1819-451A-86D1-189FC61A820E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{158CDB44-90DE-4AEA-B9F5-91108E86DB1E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7FD670D0-3B7E-4570-9C22-4C50988F44CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35453367-C422-4F19-A81C-BE4AAF5E067D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F594211-3BDD-4BEC-852D-36837ADFAA6A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E4A5678-F00B-4520-B7C5-EE2B158F53C4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E12925A6-B09B-444C-AB1F-8DB63F11A0A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C46F3D2-2DCA-4583-B13E-CF2999E63E0D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F797582-DB9A-4AF6-AC54-2C187BEFB857}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{708F6290-F01A-4795-9C9B-BAFA34759B1B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA39A6FF-6D28-454F-976C-4DC3EC2B1F8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC33F234-CC9D-4DF7-97A3-54FFA68BD7E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62FA8FB0-892F-4AEB-A757-03FFA13D527C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE1AE03E-0BE5-4360-A365-B1CA4147AE99}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BFBCC95-4042-4F25-B606-8CE4130590F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15205,7 +15205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B7C5E6-EBA1-4AD1-A93E-9608382C4875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B9D813-7301-46B8-87B9-29D66DB458F8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16441,18 +16441,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C578D74D-8A2D-46AA-A4D7-1C3FFACC7E90}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1EF95CA-667E-4AB3-B7C9-AD6DF333AB15}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5B105008-D169-4D1B-B854-E5C2AA683E3C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F3ACA278-4B8F-441D-B7CC-2C0D1DAD18D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B524BD4-75E1-4399-9864-57532C1815FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F8D22704-0979-49EC-AFDB-E0D5A88A7FDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40F31856-038D-4534-9CDF-75D4E4A5332A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A54C25F-08A8-42C4-AAF8-A45C9F9BD19A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C7B65195-5C40-4E2E-8CB1-72A2FC2E0364}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F21F4CC0-FC5E-4733-811E-2CA648F56DB4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1F5EBBA-B87E-4358-AE88-F8D2236E8E6C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B9332F3-A73A-4B98-811C-EF3FDFD29682}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97EDA781-C51A-42F2-BCD6-96982A179EE3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7378C0E4-AC6E-4FE1-BC48-82723524FAD1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0519BFB-C159-4B31-AAF2-33B4756DD509}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D92A0262-7A14-4EDE-9672-4E1CDE1E753B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE55A9D3-66BC-4F64-93E3-C66F97DEE3B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22A5C93C-E70D-47EE-8D50-A1DC0F59233E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E741BFD-26F6-417A-8018-8B940E637011}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A25EC792-3841-44BD-98D7-BB2F713CB597}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AF64F2D3-4B3A-46A3-A7B8-05A1DDFBB2C1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C0769029-1384-4E0B-B8D3-649326E01D40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F502D5B-3CEB-41E5-9336-DD1175C9292C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08A2BA6C-7C58-48D7-9144-F8E0E7CAF8C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
